--- a/MeArm Calibration.xlsx
+++ b/MeArm Calibration.xlsx
@@ -1093,8 +1093,8 @@
   </sheetPr>
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1864,12 +1864,12 @@
       </c>
       <c r="P24" s="21" t="n">
         <f aca="false">$G$24*$I$25 + $J$25</f>
-        <v>128.524</v>
+        <v>127.524</v>
       </c>
       <c r="Q24" s="22"/>
       <c r="R24" s="23" t="n">
         <f aca="false">E24-P24</f>
-        <v>-5.574</v>
+        <v>-4.574</v>
       </c>
       <c r="S24" s="45"/>
     </row>
@@ -1902,15 +1902,15 @@
         <v>-132</v>
       </c>
       <c r="J25" s="29" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K25" s="30" t="n">
         <f aca="false">J25+I25*G24</f>
-        <v>128.524</v>
+        <v>127.524</v>
       </c>
       <c r="L25" s="30" t="n">
         <f aca="false">K25+N25</f>
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M25" s="31" t="n">
         <f aca="false">M26</f>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="P25" s="21" t="n">
         <f aca="false">$G$25*$I$25 +$J$25</f>
-        <v>243.694</v>
+        <v>242.694</v>
       </c>
       <c r="Q25" s="33"/>
       <c r="R25" s="23" t="n">
         <f aca="false">E25-P25</f>
-        <v>2.20600000000002</v>
+        <v>3.20600000000002</v>
       </c>
       <c r="S25" s="46"/>
     </row>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="P26" s="21" t="n">
         <f aca="false">($G26*$I$25 + $J$25)</f>
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="41" t="n">
         <f aca="false">E25-O25</f>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="R26" s="23" t="n">
         <f aca="false">E26-P26</f>
-        <v>-0.180000000000007</v>
+        <v>0.819999999999993</v>
       </c>
       <c r="S26" s="48" t="n">
         <f aca="false">AVERAGE(R24:R26)</f>
-        <v>-1.18266666666666</v>
+        <v>-0.182666666666663</v>
       </c>
       <c r="U26" s="43"/>
     </row>
@@ -2019,18 +2019,18 @@
         <v>54</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>2200</v>
+        <v>2550</v>
       </c>
       <c r="E27" s="16" t="str">
         <f aca="false">FIXED(D27/4.88)</f>
-        <v>450.82</v>
+        <v>522.54</v>
       </c>
       <c r="F27" s="17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G27" s="18" t="n">
         <f aca="false">F27*3.141/180</f>
-        <v>0.43625</v>
+        <v>0.40135</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="44" t="s">
@@ -2049,16 +2049,16 @@
       <c r="N27" s="40"/>
       <c r="O27" s="21" t="n">
         <f aca="false">G27*I$29 + J$29</f>
-        <v>450.82</v>
+        <v>522.54</v>
       </c>
       <c r="P27" s="21" t="n">
         <f aca="false">$G$27*$I$28 +$J$28</f>
-        <v>439.585</v>
+        <v>507.9782</v>
       </c>
       <c r="Q27" s="22"/>
       <c r="R27" s="23" t="n">
         <f aca="false">E27-P27</f>
-        <v>11.235</v>
+        <v>14.5617999999999</v>
       </c>
       <c r="S27" s="49"/>
     </row>
@@ -2073,11 +2073,11 @@
         <v>58</v>
       </c>
       <c r="D28" s="25" t="n">
-        <v>1850</v>
+        <v>2250</v>
       </c>
       <c r="E28" s="16" t="str">
         <f aca="false">FIXED(D28/4.88)</f>
-        <v>379.10</v>
+        <v>461.07</v>
       </c>
       <c r="F28" s="26" t="n">
         <v>0</v>
@@ -2091,36 +2091,36 @@
         <v>132</v>
       </c>
       <c r="J28" s="29" t="n">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="K28" s="30" t="n">
         <f aca="false">J28+I28*G27</f>
-        <v>439.585</v>
+        <v>507.9782</v>
       </c>
       <c r="L28" s="30" t="n">
         <f aca="false">K28+N28</f>
-        <v>232.279</v>
+        <v>247.694</v>
       </c>
       <c r="M28" s="31" t="n">
         <f aca="false">M29</f>
-        <v>-1.5705</v>
+        <v>-1.97185</v>
       </c>
       <c r="N28" s="32" t="n">
         <f aca="false">I28*M28</f>
-        <v>-207.306</v>
+        <v>-260.2842</v>
       </c>
       <c r="O28" s="21" t="n">
         <f aca="false">G28*I$29 + J$29</f>
-        <v>388.206111111111</v>
+        <v>462.062212389381</v>
       </c>
       <c r="P28" s="21" t="n">
         <f aca="false">$G$28*$I$28 + $J$28</f>
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="33"/>
       <c r="R28" s="23" t="n">
         <f aca="false">E28-P28</f>
-        <v>-2.89999999999998</v>
+        <v>6.06999999999999</v>
       </c>
       <c r="S28" s="50"/>
     </row>
@@ -2142,26 +2142,26 @@
         <v>225.41</v>
       </c>
       <c r="F29" s="17" t="n">
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="G29" s="18" t="n">
         <f aca="false">F29*3.141/180</f>
-        <v>-1.13425</v>
+        <v>-1.5705</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I29" s="36" t="n">
         <f aca="false">((E27-E29)/(G27-G29))</f>
-        <v>143.527539000318</v>
+        <v>150.68590410021</v>
       </c>
       <c r="J29" s="37" t="n">
         <f aca="false">E27-G27*I29</f>
-        <v>388.206111111111</v>
+        <v>462.062212389381</v>
       </c>
       <c r="K29" s="38" t="n">
         <f aca="false">J29+I29*G27</f>
-        <v>450.82</v>
+        <v>522.54</v>
       </c>
       <c r="L29" s="38" t="n">
         <f aca="false">K29+N29</f>
@@ -2169,11 +2169,11 @@
       </c>
       <c r="M29" s="31" t="n">
         <f aca="false">G29-G27</f>
-        <v>-1.5705</v>
+        <v>-1.97185</v>
       </c>
       <c r="N29" s="40" t="n">
         <f aca="false">I29*M29</f>
-        <v>-225.41</v>
+        <v>-297.13</v>
       </c>
       <c r="O29" s="21" t="n">
         <f aca="false">G29*I$29 + J$29</f>
@@ -2181,19 +2181,19 @@
       </c>
       <c r="P29" s="21" t="n">
         <f aca="false">$G$29*$I$28 + $J$28</f>
-        <v>232.279</v>
+        <v>247.694</v>
       </c>
       <c r="Q29" s="41" t="n">
         <f aca="false">E28-O28</f>
-        <v>-9.10611111111109</v>
+        <v>-0.992212389380484</v>
       </c>
       <c r="R29" s="23" t="n">
         <f aca="false">E29-P29</f>
-        <v>-6.869</v>
+        <v>-22.284</v>
       </c>
       <c r="S29" s="51" t="n">
         <f aca="false">AVERAGE(R27:R29)</f>
-        <v>0.488666666666679</v>
+        <v>-0.55073333333335</v>
       </c>
       <c r="U29" s="43"/>
     </row>
